--- a/sample_data/sample_data_2024-01.xlsx
+++ b/sample_data/sample_data_2024-01.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -630,7 +630,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5099,7 +5099,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5644,7 +5644,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10440,7 +10440,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11966,7 +11966,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -12075,7 +12075,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -12293,7 +12293,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -12838,7 +12838,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -13274,7 +13274,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -13928,7 +13928,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -14582,7 +14582,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -15236,7 +15236,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -15454,7 +15454,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -15563,7 +15563,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -15999,7 +15999,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -16326,7 +16326,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -16435,7 +16435,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -16544,7 +16544,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -17089,7 +17089,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -17525,7 +17525,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -17634,7 +17634,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -17852,7 +17852,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -17961,7 +17961,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -18070,7 +18070,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -18288,7 +18288,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -18397,7 +18397,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -18506,7 +18506,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -18615,7 +18615,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -18724,7 +18724,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -18833,7 +18833,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -18942,7 +18942,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -19051,7 +19051,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -19160,7 +19160,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -19269,7 +19269,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -19814,7 +19814,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -19923,7 +19923,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -20141,7 +20141,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -20250,7 +20250,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -20359,7 +20359,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -20577,7 +20577,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -20686,7 +20686,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -21013,7 +21013,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -21231,7 +21231,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -21449,7 +21449,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -21558,7 +21558,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -21667,7 +21667,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
